--- a/Total trimestral.xlsx
+++ b/Total trimestral.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luzsc\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luzsc\OneDrive\Imágenes\Screenshots\Mar-Abril Scarlet Salazar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ACF151-88C7-4A45-9841-7320FE833418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5EF60F-BC6C-40B8-BCCB-5FF7F08BBE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF24AE4C-D176-45E4-80F9-4FB2602EC199}"/>
   </bookViews>
@@ -259,6 +259,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF009900"/>
       <color rgb="FF0033CC"/>
     </mruColors>
   </colors>
@@ -271,6 +272,4436 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Unidades</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> Vendidas</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="009900"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Modelo 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Modelo 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Modelo 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$4:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A1B4-4C5C-B011-56DC878B0C2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="123"/>
+        <c:gapDepth val="135"/>
+        <c:shape val="box"/>
+        <c:axId val="1189544367"/>
+        <c:axId val="1189542703"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1189544367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189542703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1189542703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189544367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.49441596902874058"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Modelo 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Modelo 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Modelo 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$4:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C701-495F-8614-784C8D61880E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="cylinder"/>
+        <c:axId val="1020859039"/>
+        <c:axId val="1020861951"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1020859039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1020861951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1020861951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1020859039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Ventas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> por Modelos</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modelo 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="76200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="76200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-D80C-426B-83E2-FE578795616E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$4:$F$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D80C-426B-83E2-FE578795616E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modelo 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="76200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D80C-426B-83E2-FE578795616E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="76200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-D80C-426B-83E2-FE578795616E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="76200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-D80C-426B-83E2-FE578795616E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="76200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D80C-426B-83E2-FE578795616E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$5:$F$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D80C-426B-83E2-FE578795616E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modelo 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="009900"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="009900"/>
+              </a:solidFill>
+              <a:ln w="76200">
+                <a:solidFill>
+                  <a:srgbClr val="009900"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D80C-426B-83E2-FE578795616E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="994364447"/>
+        <c:axId val="994361535"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="994364447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="994361535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="994361535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="994364447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Costes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Personal ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>$1.00</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>$2.00</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>$3.00</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>$4.00</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$12:$F$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0DE-4E36-B6E7-43CAE23AC4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comisión venta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>$1.00</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>$2.00</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>$3.00</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>$4.00</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$13:$F$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3614.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2424.4500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3328.7750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2710.2249999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0DE-4E36-B6E7-43CAE23AC4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Publicidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="009900"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>$1.00</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>$2.00</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>$3.00</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>$4.00</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$14:$F$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D0DE-4E36-B6E7-43CAE23AC4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costes fijos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>$1.00</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>$2.00</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>$3.00</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>$4.00</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$B$15:$F$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>260247.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174560.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239671.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195136.19999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D0DE-4E36-B6E7-43CAE23AC4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1576392863"/>
+        <c:axId val="1576394527"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1576392863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1576394527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1576394527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1576392863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9E9DB7-94EA-4A23-8D47-7D1EC0B1BD6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>663526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>463062</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CB0A25-7BE2-4458-8340-31FED0E2E390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275008</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106328</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133849</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059A03E0-D3BE-4FA5-8208-0287ADF7495B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>212294</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>35505</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2202DA01-F850-4BDB-954C-233EE102408F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,14 +5003,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967CA43-1AAB-42F0-86CD-33F9ECC9C3F6}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
@@ -699,7 +5130,7 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <f>B4*$D$22+B5*$D$23+B6*$D$24</f>
         <v>1445820</v>
       </c>
@@ -724,7 +5155,7 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <f>B4*$F$22+B5*$F$23+B6*$F$24</f>
         <v>1074570.2</v>
       </c>
@@ -1032,5 +5463,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>